--- a/Examens 2DAM.xlsx
+++ b/Examens 2DAM.xlsx
@@ -66,13 +66,13 @@
     <t>Acces a dades</t>
   </si>
   <si>
+    <t>Servicis</t>
+  </si>
+  <si>
     <t>Sistemes de gestió</t>
   </si>
   <si>
     <t>Interfícies</t>
-  </si>
-  <si>
-    <t>Servicis</t>
   </si>
 </sst>
 </file>
@@ -340,8 +340,8 @@
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -352,15 +352,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="000000">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="100000"/>
-                </a:srgbClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -376,11 +372,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="496626678"/>
-        <c:axId val="1373785759"/>
-      </c:areaChart>
+        <c:axId val="1826612448"/>
+        <c:axId val="710680297"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="496626678"/>
+        <c:axId val="1826612448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,10 +428,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373785759"/>
+        <c:crossAx val="710680297"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1373785759"/>
+        <c:axId val="710680297"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -511,7 +507,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496626678"/>
+        <c:crossAx val="1826612448"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -776,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -962,7 +958,7 @@
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="11">
-        <v>44883.0</v>
+        <v>44882.0</v>
       </c>
     </row>
     <row r="6">
@@ -976,19 +972,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13" t="b">
         <v>0</v>
@@ -1001,7 +997,7 @@
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="15">
-        <v>44882.0</v>
+        <v>44883.0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,19 +1050,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="13" t="b">
         <v>0</v>

--- a/Examens 2DAM.xlsx
+++ b/Examens 2DAM.xlsx
@@ -372,11 +372,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1826612448"/>
-        <c:axId val="710680297"/>
+        <c:axId val="1770204908"/>
+        <c:axId val="1334588301"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1826612448"/>
+        <c:axId val="1770204908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,10 +428,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710680297"/>
+        <c:crossAx val="1334588301"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="710680297"/>
+        <c:axId val="1334588301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -507,7 +507,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826612448"/>
+        <c:crossAx val="1770204908"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -917,7 +917,9 @@
       <c r="K4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="14">
+        <v>8.58</v>
+      </c>
       <c r="M4" s="15">
         <v>44872.0</v>
       </c>
@@ -956,7 +958,9 @@
       <c r="K5" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="18"/>
+      <c r="L5" s="18">
+        <v>9.5</v>
+      </c>
       <c r="M5" s="11">
         <v>44882.0</v>
       </c>
